--- a/output/Actor_01/classify_report_cnn.xlsx
+++ b/output/Actor_01/classify_report_cnn.xlsx
@@ -441,10 +441,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
         <v>0.6666666666666666</v>
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0.4444444444444444</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -492,13 +492,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2222222222222222</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.3636363636363636</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -509,13 +509,13 @@
         <v>8</v>
       </c>
       <c r="B6">
+        <v>0.75</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
+      </c>
+      <c r="D6">
         <v>0.6666666666666666</v>
-      </c>
-      <c r="C6">
-        <v>0.8</v>
-      </c>
-      <c r="D6">
-        <v>0.7272727272727273</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -526,13 +526,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -543,13 +543,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -560,13 +560,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -577,16 +577,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.5152777777777777</v>
+        <v>0.5169642857142857</v>
       </c>
       <c r="C11">
-        <v>0.4928571428571429</v>
+        <v>0.5169642857142858</v>
       </c>
       <c r="D11">
-        <v>0.4460858585858586</v>
+        <v>0.4724386724386724</v>
       </c>
       <c r="E11">
         <v>28</v>
@@ -611,13 +611,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.5253968253968254</v>
+        <v>0.5555272108843538</v>
       </c>
       <c r="C12">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>0.4479076479076479</v>
+        <v>0.4947639661925377</v>
       </c>
       <c r="E12">
         <v>28</v>

--- a/output/Actor_01/classify_report_cnn.xlsx
+++ b/output/Actor_01/classify_report_cnn.xlsx
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.75</v>
       </c>
       <c r="D2">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -509,10 +509,10 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
         <v>0.6666666666666666</v>
@@ -526,13 +526,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -543,13 +543,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -563,10 +563,10 @@
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D9">
-        <v>0.3636363636363636</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -577,16 +577,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.5169642857142857</v>
+        <v>0.5446428571428571</v>
       </c>
       <c r="C11">
-        <v>0.5169642857142858</v>
+        <v>0.5553571428571429</v>
       </c>
       <c r="D11">
-        <v>0.4724386724386724</v>
+        <v>0.4946428571428571</v>
       </c>
       <c r="E11">
         <v>28</v>
@@ -611,13 +611,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.5555272108843538</v>
+        <v>0.5688775510204082</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D12">
-        <v>0.4947639661925377</v>
+        <v>0.4978458049886622</v>
       </c>
       <c r="E12">
         <v>28</v>

--- a/output/Actor_01/classify_report_cnn.xlsx
+++ b/output/Actor_01/classify_report_cnn.xlsx
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C2">
         <v>0.75</v>
       </c>
       <c r="D2">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0.6</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -509,13 +509,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5714285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
         <v>0.8</v>
       </c>
       <c r="D6">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -560,13 +560,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C9">
         <v>0.1428571428571428</v>
       </c>
       <c r="D9">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -577,16 +577,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.5446428571428571</v>
+        <v>0.4461309523809524</v>
       </c>
       <c r="C11">
-        <v>0.5553571428571429</v>
+        <v>0.5241071428571429</v>
       </c>
       <c r="D11">
-        <v>0.4946428571428571</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="E11">
         <v>28</v>
@@ -611,13 +611,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.5688775510204082</v>
+        <v>0.482312925170068</v>
       </c>
       <c r="C12">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>0.4978458049886622</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E12">
         <v>28</v>
